--- a/tmi/bd-telefonia/arxiu_telefonia.xlsx
+++ b/tmi/bd-telefonia/arxiu_telefonia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/Web extensions telefòniques/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/tmi/bd-telefonia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C70307-F015-43FC-A6A9-DEFF26379724}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CD1357-A946-4E04-BFB8-AEF40E2E61F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="ListadoPuestos-CGIPIPCENTREX001" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="755">
   <si>
     <t>Webex</t>
   </si>
@@ -2289,6 +2289,33 @@
   </si>
   <si>
     <t>Riera</t>
+  </si>
+  <si>
+    <t>Automatismes</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Administracio</t>
+  </si>
+  <si>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>Compres</t>
+  </si>
+  <si>
+    <t>Taller, MachineAssembly</t>
+  </si>
+  <si>
+    <t>Enginyeria</t>
+  </si>
+  <si>
+    <t>Taller, LineAssembly</t>
+  </si>
+  <si>
+    <t>Enginyeria, PMO</t>
   </si>
 </sst>
 </file>
@@ -2900,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B924CCF6-ACEC-41F7-BE2D-2D2C72A9ACED}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,7 +3023,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -3038,7 +3065,7 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -3080,7 +3107,7 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -3122,7 +3149,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -3164,7 +3191,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>747</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -3206,7 +3233,7 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>748</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -3248,7 +3275,7 @@
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>749</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -3290,7 +3317,7 @@
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -3332,7 +3359,7 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>747</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -3416,7 +3443,7 @@
         <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>747</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -3458,7 +3485,7 @@
         <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>750</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -3500,7 +3527,7 @@
         <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>751</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -3542,7 +3569,7 @@
         <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>747</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -3668,7 +3695,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>752</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -3752,7 +3779,7 @@
         <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>753</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -3794,7 +3821,7 @@
         <v>100</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -3836,7 +3863,7 @@
         <v>103</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>

--- a/tmi/bd-telefonia/arxiu_telefonia.xlsx
+++ b/tmi/bd-telefonia/arxiu_telefonia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/tmi/bd-telefonia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Archivos de chat de Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CD1357-A946-4E04-BFB8-AEF40E2E61F8}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A64955-E058-4C01-8C27-DA31C5940226}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="761">
   <si>
     <t>Webex</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Benajas</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>3554</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Martinez</t>
   </si>
   <si>
-    <t>RH</t>
-  </si>
-  <si>
     <t>3105</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Alvarez</t>
   </si>
   <si>
-    <t>Desenvolupament</t>
-  </si>
-  <si>
     <t>3350</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>Cahelles</t>
   </si>
   <si>
-    <t>Proves</t>
-  </si>
-  <si>
     <t>2251</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>ROUTER MK</t>
   </si>
   <si>
-    <t>Documentacions</t>
-  </si>
-  <si>
     <t>3227</t>
   </si>
   <si>
@@ -221,9 +206,6 @@
     <t>Monir</t>
   </si>
   <si>
-    <t>Post Venta</t>
-  </si>
-  <si>
     <t>3433</t>
   </si>
   <si>
@@ -677,9 +659,6 @@
     <t>673050164</t>
   </si>
   <si>
-    <t>ric</t>
-  </si>
-  <si>
     <t>Oro</t>
   </si>
   <si>
@@ -2291,38 +2270,96 @@
     <t>Riera</t>
   </si>
   <si>
-    <t>Automatismes</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Administracio</t>
-  </si>
-  <si>
-    <t>Logistica</t>
-  </si>
-  <si>
-    <t>Compres</t>
-  </si>
-  <si>
-    <t>Taller, MachineAssembly</t>
-  </si>
-  <si>
-    <t>Enginyeria</t>
-  </si>
-  <si>
-    <t>Taller, LineAssembly</t>
-  </si>
-  <si>
-    <t>Enginyeria, PMO</t>
+    <t>Engineering/Automation</t>
+  </si>
+  <si>
+    <t>Sales/</t>
+  </si>
+  <si>
+    <t>Sales/AreaManager</t>
+  </si>
+  <si>
+    <t>Sales/Engineering</t>
+  </si>
+  <si>
+    <t>AfterSales/</t>
+  </si>
+  <si>
+    <t>Logistic/</t>
+  </si>
+  <si>
+    <t>Marketing/</t>
+  </si>
+  <si>
+    <t>IT/</t>
+  </si>
+  <si>
+    <t>Customer Service/</t>
+  </si>
+  <si>
+    <t>Engineering/</t>
+  </si>
+  <si>
+    <t>Supply Chain/</t>
+  </si>
+  <si>
+    <t>Administration/</t>
+  </si>
+  <si>
+    <t>Engineering/Project Manager</t>
+  </si>
+  <si>
+    <t>Human Resources/</t>
+  </si>
+  <si>
+    <t>Factory Floor/</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIPO_PUESTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_GRUPO_CERRADO</t>
+    </r>
+  </si>
+  <si>
+    <t>Engineering/Mechanical</t>
+  </si>
+  <si>
+    <t>Engineering/Electrical</t>
+  </si>
+  <si>
+    <t>Engineering/Documentation</t>
+  </si>
+  <si>
+    <t>Latam/Null</t>
+  </si>
+  <si>
+    <t>AfterSales/Technical Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2355,6 +2392,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2472,7 +2516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2515,6 +2559,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2590,6 +2635,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4B967B-FCDD-41ED-8F26-09B3BC2C3A4E}" name="ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268" displayName="ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268" ref="B1:M114" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:M114" xr:uid="{6C4B967B-FCDD-41ED-8F26-09B3BC2C3A4E}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{729C3640-ADCA-485A-8C57-19BDF2920BEC}" uniqueName="1" name="EXTENSIÓN" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{659FDE68-287E-47E8-B3C3-C28DB34FAD3A}" uniqueName="2" name="Nº FIJO" queryTableFieldId="2" dataDxfId="9"/>
@@ -2928,7 +2974,7 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -3035,37 +3081,37 @@
         <v>9015</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -3077,14 +3123,14 @@
         <v>2438</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -3101,13 +3147,13 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
+        <v>755</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
       <c r="L4" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -3119,37 +3165,37 @@
         <v>6295</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -3161,37 +3207,37 @@
         <v>0025</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
       <c r="L6" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -3203,37 +3249,37 @@
         <v>4647</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -3245,37 +3291,37 @@
         <v>4834</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
       <c r="L8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -3287,13 +3333,13 @@
         <v>2251</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -3311,13 +3357,13 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -3329,13 +3375,13 @@
         <v>0891</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -3353,13 +3399,13 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -3371,13 +3417,13 @@
         <v>0576</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -3395,13 +3441,13 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -3413,13 +3459,13 @@
         <v>0689</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -3437,13 +3483,13 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -3455,13 +3501,13 @@
         <v>8752</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -3479,13 +3525,13 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -3497,13 +3543,13 @@
         <v>8753</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -3521,13 +3567,13 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -3539,13 +3585,13 @@
         <v>8754</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -3563,13 +3609,13 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -3581,13 +3627,13 @@
         <v>2795</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -3605,13 +3651,13 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>760</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -3623,13 +3669,13 @@
         <v>6908</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -3647,13 +3693,13 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -3665,13 +3711,13 @@
         <v>4822</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -3689,13 +3735,13 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -3707,13 +3753,13 @@
         <v>8539</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -3731,13 +3777,13 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -3749,13 +3795,13 @@
         <v>4325</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -3773,10 +3819,10 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
         <v>753</v>
@@ -3791,13 +3837,13 @@
         <v>8027</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -3815,13 +3861,13 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -3833,13 +3879,13 @@
         <v>0187</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -3857,13 +3903,13 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -3875,13 +3921,13 @@
         <v>0198</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -3899,13 +3945,13 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>745</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -3917,13 +3963,13 @@
         <v>0654</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -3941,13 +3987,13 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>745</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -3959,13 +4005,13 @@
         <v>4212</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -3983,13 +4029,13 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>748</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -4001,13 +4047,13 @@
         <v>8401</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -4025,13 +4071,13 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>740</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -4043,13 +4089,13 @@
         <v>7007</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -4067,13 +4113,13 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>746</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -4085,13 +4131,13 @@
         <v>2702</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -4109,13 +4155,13 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>748</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -4127,13 +4173,13 @@
         <v>0810</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -4151,13 +4197,13 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -4169,13 +4215,13 @@
         <v>6577</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -4193,13 +4239,13 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>743</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -4211,13 +4257,13 @@
         <v>2255</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -4235,13 +4281,13 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>743</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -4253,13 +4299,13 @@
         <v>3944</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -4277,13 +4323,13 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>739</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -4295,13 +4341,13 @@
         <v>4927</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -4319,13 +4365,13 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>747</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -4337,13 +4383,13 @@
         <v>3648</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -4361,13 +4407,13 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>760</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -4379,13 +4425,13 @@
         <v>0295</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -4403,13 +4449,13 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>750</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -4421,13 +4467,13 @@
         <v>9435</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -4445,13 +4491,13 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>745</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -4463,13 +4509,13 @@
         <v>0985</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -4487,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s">
-        <v>47</v>
+        <v>746</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -4505,13 +4551,13 @@
         <v>7764</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -4529,13 +4575,13 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>739</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -4547,13 +4593,13 @@
         <v>2053</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -4571,13 +4617,13 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s">
-        <v>47</v>
+        <v>749</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
@@ -4589,13 +4635,13 @@
         <v>3939</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -4613,13 +4659,13 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>739</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -4631,13 +4677,13 @@
         <v>0331</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -4655,13 +4701,13 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>751</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -4673,13 +4719,13 @@
         <v>3315</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -4697,13 +4743,13 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>743</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -4715,13 +4761,13 @@
         <v>1405</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4739,13 +4785,13 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s">
-        <v>42</v>
+        <v>759</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -4757,13 +4803,13 @@
         <v>3506</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -4781,13 +4827,13 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>742</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -4799,13 +4845,13 @@
         <v>5367</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -4823,13 +4869,13 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>743</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -4841,13 +4887,13 @@
         <v>2264</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -4865,13 +4911,13 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>741</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -4883,13 +4929,13 @@
         <v>2274</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4907,13 +4953,13 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="K47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>746</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -4925,13 +4971,13 @@
         <v>2372</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -4949,13 +4995,13 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>741</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
@@ -4967,13 +5013,13 @@
         <v>4733</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4994,10 +5040,10 @@
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s">
-        <v>47</v>
+        <v>739</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
@@ -5009,13 +5055,13 @@
         <v>9581</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -5033,13 +5079,13 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s">
-        <v>47</v>
+        <v>739</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -5051,13 +5097,13 @@
         <v>0164</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -5075,13 +5121,13 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>742</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -5093,13 +5139,13 @@
         <v>2714</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -5117,13 +5163,13 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K52" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>753</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -5135,13 +5181,13 @@
         <v>3597</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -5159,13 +5205,13 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K53" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>760</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -5177,13 +5223,13 @@
         <v>3600</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -5201,13 +5247,13 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K54" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>743</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
@@ -5219,13 +5265,13 @@
         <v>3609</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -5243,13 +5289,13 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K55" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>743</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
@@ -5261,13 +5307,13 @@
         <v>4703</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -5285,13 +5331,13 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K56" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>753</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -5303,13 +5349,13 @@
         <v>9571</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -5327,13 +5373,13 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K57" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>752</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
@@ -5345,13 +5391,13 @@
         <v>5100</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -5369,13 +5415,13 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>743</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
@@ -5387,13 +5433,13 @@
         <v>0032</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -5411,13 +5457,13 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K59" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>753</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -5429,13 +5475,13 @@
         <v>9920</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -5453,13 +5499,13 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>753</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
@@ -5471,13 +5517,13 @@
         <v>9921</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -5495,13 +5541,13 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K61" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -5513,13 +5559,13 @@
         <v>8188</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -5537,13 +5583,13 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>759</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -5555,13 +5601,13 @@
         <v>5902</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -5579,13 +5625,13 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>746</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
@@ -5597,13 +5643,13 @@
         <v>5920</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -5621,13 +5667,13 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s">
-        <v>42</v>
+        <v>744</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -5639,13 +5685,13 @@
         <v>5922</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -5663,13 +5709,13 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K65" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>744</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -5681,13 +5727,13 @@
         <v>5941</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -5705,13 +5751,13 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K66" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>744</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
@@ -5723,13 +5769,13 @@
         <v>5983</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -5747,13 +5793,13 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K67" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
@@ -5765,13 +5811,13 @@
         <v>5987</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -5789,13 +5835,13 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K68" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L68" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
@@ -5807,13 +5853,13 @@
         <v>6014</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -5831,13 +5877,13 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K69" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
@@ -5849,13 +5895,13 @@
         <v>6068</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -5873,13 +5919,13 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K70" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
@@ -5891,13 +5937,13 @@
         <v>3883</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -5915,13 +5961,13 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K71" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L71" t="s">
-        <v>42</v>
+        <v>743</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
@@ -5956,14 +6002,14 @@
       <c r="I72" t="s">
         <v>14</v>
       </c>
-      <c r="J72" t="s">
-        <v>283</v>
+      <c r="J72" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K72" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>754</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
@@ -5998,14 +6044,14 @@
       <c r="I73" t="s">
         <v>14</v>
       </c>
-      <c r="J73" t="s">
-        <v>283</v>
+      <c r="J73" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L73" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
@@ -6040,14 +6086,14 @@
       <c r="I74" t="s">
         <v>14</v>
       </c>
-      <c r="J74" t="s">
-        <v>283</v>
+      <c r="J74" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K74" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L74" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
@@ -6059,10 +6105,10 @@
         <v>1333</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C75" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -6083,13 +6129,13 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L75" t="s">
-        <v>56</v>
+        <v>740</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
@@ -6101,10 +6147,10 @@
         <v>1334</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -6125,13 +6171,13 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K76" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L76" t="s">
-        <v>56</v>
+        <v>749</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -6143,10 +6189,10 @@
         <v>1335</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -6167,13 +6213,13 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K77" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L77" t="s">
-        <v>37</v>
+        <v>749</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
@@ -6185,10 +6231,10 @@
         <v>1336</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -6209,13 +6255,13 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K78" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L78" t="s">
-        <v>37</v>
+        <v>749</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
@@ -6227,10 +6273,10 @@
         <v>1337</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -6251,13 +6297,13 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K79" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L79" t="s">
-        <v>37</v>
+        <v>749</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -6269,16 +6315,16 @@
         <v>1338</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -6293,16 +6339,16 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K80" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L80" t="s">
-        <v>37</v>
+        <v>752</v>
       </c>
       <c r="M80" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6311,40 +6357,40 @@
         <v>1339</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
+        <v>302</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>307</v>
+      </c>
+      <c r="K81" t="s">
+        <v>308</v>
+      </c>
+      <c r="L81" t="s">
+        <v>750</v>
+      </c>
+      <c r="M81" t="s">
         <v>309</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>314</v>
-      </c>
-      <c r="K81" t="s">
-        <v>315</v>
-      </c>
-      <c r="L81" t="s">
-        <v>37</v>
-      </c>
-      <c r="M81" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6353,10 +6399,10 @@
         <v>1340</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -6377,13 +6423,13 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K82" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L82" t="s">
-        <v>37</v>
+        <v>743</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
@@ -6395,10 +6441,10 @@
         <v>1341</v>
       </c>
       <c r="B83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -6419,13 +6465,13 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L83" t="s">
-        <v>37</v>
+        <v>747</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
@@ -6437,10 +6483,10 @@
         <v>1342</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -6461,57 +6507,57 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L84" t="s">
-        <v>47</v>
+        <v>747</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1343</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>328</v>
+      <c r="B85" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>65</v>
+      </c>
+      <c r="K85" t="s">
+        <v>321</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="M85" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6521,10 +6567,10 @@
         <v>1344</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C86" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -6545,13 +6591,13 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K86" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L86" t="s">
-        <v>47</v>
+        <v>756</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
@@ -6563,10 +6609,10 @@
         <v>1345</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C87" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -6587,13 +6633,13 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K87" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L87" t="s">
-        <v>42</v>
+        <v>756</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
@@ -6605,10 +6651,10 @@
         <v>1346</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -6629,13 +6675,13 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K88" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L88" t="s">
-        <v>42</v>
+        <v>756</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
@@ -6647,10 +6693,10 @@
         <v>1347</v>
       </c>
       <c r="B89" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -6671,13 +6717,13 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K89" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L89" t="s">
-        <v>42</v>
+        <v>756</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
@@ -6689,10 +6735,10 @@
         <v>1348</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -6713,13 +6759,13 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K90" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L90" t="s">
-        <v>42</v>
+        <v>756</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
@@ -6731,10 +6777,10 @@
         <v>1349</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C91" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -6755,13 +6801,13 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>756</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -6773,16 +6819,16 @@
         <v>1350</v>
       </c>
       <c r="B92" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -6797,16 +6843,16 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K92" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L92" t="s">
-        <v>37</v>
+        <v>750</v>
       </c>
       <c r="M92" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -6815,10 +6861,10 @@
         <v>1351</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -6839,13 +6885,13 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K93" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L93" t="s">
-        <v>42</v>
+        <v>756</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -6857,10 +6903,10 @@
         <v>1352</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -6881,13 +6927,13 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K94" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L94" t="s">
-        <v>47</v>
+        <v>756</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
@@ -6899,16 +6945,16 @@
         <v>1353</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -6923,16 +6969,16 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K95" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L95" t="s">
-        <v>51</v>
+        <v>752</v>
       </c>
       <c r="M95" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -6941,10 +6987,10 @@
         <v>1354</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -6965,13 +7011,13 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K96" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L96" t="s">
-        <v>56</v>
+        <v>756</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
@@ -6983,10 +7029,10 @@
         <v>1355</v>
       </c>
       <c r="B97" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -7007,13 +7053,13 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K97" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>757</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
@@ -7025,16 +7071,16 @@
         <v>1356</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C98" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -7049,16 +7095,16 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K98" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L98" t="s">
-        <v>37</v>
+        <v>749</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,10 +7113,10 @@
         <v>1357</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -7091,13 +7137,13 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K99" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L99" t="s">
-        <v>42</v>
+        <v>757</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
@@ -7109,10 +7155,10 @@
         <v>1358</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -7133,13 +7179,13 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K100" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L100" t="s">
-        <v>47</v>
+        <v>757</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
@@ -7151,10 +7197,10 @@
         <v>1359</v>
       </c>
       <c r="B101" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -7175,13 +7221,13 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K101" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L101" t="s">
-        <v>51</v>
+        <v>757</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
@@ -7193,10 +7239,10 @@
         <v>1360</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -7217,13 +7263,13 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K102" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L102" t="s">
-        <v>56</v>
+        <v>739</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -7235,10 +7281,10 @@
         <v>1361</v>
       </c>
       <c r="B103" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -7259,13 +7305,13 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K103" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>739</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
@@ -7277,16 +7323,16 @@
         <v>1362</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C104" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -7301,16 +7347,16 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K104" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L104" t="s">
-        <v>37</v>
+        <v>749</v>
       </c>
       <c r="M104" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7319,10 +7365,10 @@
         <v>1363</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -7343,13 +7389,13 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K105" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L105" t="s">
-        <v>42</v>
+        <v>739</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
@@ -7361,10 +7407,10 @@
         <v>1364</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -7385,13 +7431,13 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K106" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L106" t="s">
-        <v>47</v>
+        <v>758</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
@@ -7403,10 +7449,10 @@
         <v>1365</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -7427,57 +7473,57 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="K107" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="L107" t="s">
-        <v>51</v>
+        <v>758</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1366</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>123</v>
+      <c r="B108" t="s">
+        <v>400</v>
+      </c>
+      <c r="C108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>116</v>
+      </c>
+      <c r="K108" t="s">
+        <v>117</v>
       </c>
       <c r="L108" t="s">
-        <v>56</v>
-      </c>
-      <c r="M108" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="M108" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7487,10 +7533,10 @@
         <v>1367</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -7511,13 +7557,13 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K109" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L109" t="s">
-        <v>20</v>
+        <v>743</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
@@ -7529,10 +7575,10 @@
         <v>1368</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -7553,13 +7599,13 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K110" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L110" t="s">
-        <v>37</v>
+        <v>743</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
@@ -7594,14 +7640,14 @@
       <c r="I111" t="s">
         <v>14</v>
       </c>
-      <c r="J111" t="s">
-        <v>283</v>
+      <c r="J111" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K111" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L111" t="s">
-        <v>42</v>
+        <v>754</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
@@ -7636,14 +7682,14 @@
       <c r="I112" t="s">
         <v>14</v>
       </c>
-      <c r="J112" t="s">
-        <v>283</v>
+      <c r="J112" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K112" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L112" t="s">
-        <v>47</v>
+        <v>754</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
@@ -7678,14 +7724,14 @@
       <c r="I113" t="s">
         <v>14</v>
       </c>
-      <c r="J113" t="s">
-        <v>283</v>
+      <c r="J113" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K113" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L113" t="s">
-        <v>51</v>
+        <v>754</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
@@ -7720,14 +7766,14 @@
       <c r="I114" t="s">
         <v>14</v>
       </c>
-      <c r="J114" t="s">
-        <v>283</v>
+      <c r="J114" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="K114" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L114" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
@@ -7766,34 +7812,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G1" s="14"/>
       <c r="K1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C2" s="7">
         <v>606602322</v>
@@ -7802,7 +7848,7 @@
         <v>3552</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F2" s="8">
         <v>606602322</v>
@@ -7818,10 +7864,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C3" s="11">
         <v>606639015</v>
@@ -7830,7 +7876,7 @@
         <v>3554</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F3" s="12">
         <v>606639015</v>
@@ -7846,10 +7892,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C4" s="7">
         <v>607092438</v>
@@ -7858,7 +7904,7 @@
         <v>2438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F4" s="8">
         <v>607092438</v>
@@ -7874,10 +7920,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C5" s="11">
         <v>608696295</v>
@@ -7886,7 +7932,7 @@
         <v>3425</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F5" s="12">
         <v>608696295</v>
@@ -7902,10 +7948,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C6" s="7">
         <v>609620025</v>
@@ -7914,7 +7960,7 @@
         <v>3201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F6" s="8">
         <v>609620025</v>
@@ -7930,10 +7976,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C7" s="11">
         <v>610514647</v>
@@ -7942,7 +7988,7 @@
         <v>3105</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F7" s="12">
         <v>610514647</v>
@@ -7958,10 +8004,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C8" s="7">
         <v>610514834</v>
@@ -7970,7 +8016,7 @@
         <v>3350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F8" s="8">
         <v>610514834</v>
@@ -7986,10 +8032,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C9" s="11">
         <v>616322251</v>
@@ -7998,7 +8044,7 @@
         <v>2251</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F9" s="12">
         <v>616322251</v>
@@ -8014,10 +8060,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C10" s="7">
         <v>616670891</v>
@@ -8026,7 +8072,7 @@
         <v>3227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F10" s="8">
         <v>616670891</v>
@@ -8042,10 +8088,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C11" s="11">
         <v>618490576</v>
@@ -8054,7 +8100,7 @@
         <v>3433</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F11" s="12">
         <v>618490576</v>
@@ -8070,10 +8116,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C12" s="7">
         <v>618490689</v>
@@ -8082,7 +8128,7 @@
         <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F12" s="8">
         <v>618490689</v>
@@ -8098,10 +8144,10 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C13" s="11">
         <v>618628752</v>
@@ -8110,7 +8156,7 @@
         <v>3300</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F13" s="12">
         <v>618628752</v>
@@ -8126,10 +8172,10 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C14" s="7">
         <v>618628753</v>
@@ -8138,7 +8184,7 @@
         <v>3602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F14" s="8">
         <v>618628753</v>
@@ -8154,10 +8200,10 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C15" s="11">
         <v>618628754</v>
@@ -8166,7 +8212,7 @@
         <v>3203</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F15" s="12">
         <v>618628754</v>
@@ -8182,10 +8228,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C16" s="7">
         <v>618832795</v>
@@ -8194,7 +8240,7 @@
         <v>3404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F16" s="8">
         <v>618832795</v>
@@ -8210,10 +8256,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C17" s="11">
         <v>619126908</v>
@@ -8222,7 +8268,7 @@
         <v>3403</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F17" s="12">
         <v>619126908</v>
@@ -8238,10 +8284,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C18" s="7">
         <v>619464822</v>
@@ -8250,7 +8296,7 @@
         <v>3500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F18" s="8">
         <v>619464822</v>
@@ -8266,10 +8312,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C19" s="11">
         <v>620678539</v>
@@ -8278,7 +8324,7 @@
         <v>3430</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F19" s="12">
         <v>620678539</v>
@@ -8294,10 +8340,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C20" s="7">
         <v>626154325</v>
@@ -8306,7 +8352,7 @@
         <v>3621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F20" s="8">
         <v>626154325</v>
@@ -8322,10 +8368,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C21" s="11">
         <v>626998027</v>
@@ -8334,7 +8380,7 @@
         <v>3502</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F21" s="12">
         <v>626998027</v>
@@ -8350,10 +8396,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C22" s="7">
         <v>627360187</v>
@@ -8362,7 +8408,7 @@
         <v>3503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F22" s="8">
         <v>627360187</v>
@@ -8378,10 +8424,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C23" s="11">
         <v>627360198</v>
@@ -8390,7 +8436,7 @@
         <v>3252</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F23" s="12">
         <v>627360198</v>
@@ -8406,10 +8452,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C24" s="7">
         <v>627360654</v>
@@ -8418,7 +8464,7 @@
         <v>3250</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F24" s="8">
         <v>627360654</v>
@@ -8434,10 +8480,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C25" s="11">
         <v>629384212</v>
@@ -8446,7 +8492,7 @@
         <v>3501</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F25" s="12">
         <v>629384212</v>
@@ -8462,10 +8508,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C26" s="7">
         <v>629388401</v>
@@ -8474,7 +8520,7 @@
         <v>3200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F26" s="8">
         <v>629388401</v>
@@ -8490,10 +8536,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C27" s="11">
         <v>630007007</v>
@@ -8502,7 +8548,7 @@
         <v>3007</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F27" s="12">
         <v>630007007</v>
@@ -8518,10 +8564,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C28" s="7">
         <v>630832702</v>
@@ -8530,7 +8576,7 @@
         <v>3505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F28" s="8">
         <v>630832702</v>
@@ -8546,10 +8592,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C29" s="11">
         <v>634870810</v>
@@ -8558,7 +8604,7 @@
         <v>3206</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F29" s="12">
         <v>634870810</v>
@@ -8574,10 +8620,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C30" s="7">
         <v>636256577</v>
@@ -8586,7 +8632,7 @@
         <v>3402</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F30" s="8">
         <v>636256577</v>
@@ -8602,10 +8648,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C31" s="11">
         <v>636312255</v>
@@ -8614,7 +8660,7 @@
         <v>3432</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F31" s="12">
         <v>636312255</v>
@@ -8630,10 +8676,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C32" s="7">
         <v>637273944</v>
@@ -8642,7 +8688,7 @@
         <v>3551</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F32" s="8">
         <v>637273944</v>
@@ -8658,10 +8704,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C33" s="11">
         <v>637274927</v>
@@ -8670,7 +8716,7 @@
         <v>3205</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F33" s="12">
         <v>637274927</v>
@@ -8686,10 +8732,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C34" s="7">
         <v>639103648</v>
@@ -8698,7 +8744,7 @@
         <v>3648</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F34" s="8">
         <v>639103648</v>
@@ -8714,10 +8760,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C35" s="11">
         <v>646510295</v>
@@ -8726,7 +8772,7 @@
         <v>3100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F35" s="12">
         <v>646510295</v>
@@ -8742,10 +8788,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C36" s="7">
         <v>647719435</v>
@@ -8754,7 +8800,7 @@
         <v>3251</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F36" s="8">
         <v>647719435</v>
@@ -8770,10 +8816,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C37" s="11">
         <v>647860985</v>
@@ -8782,7 +8828,7 @@
         <v>985</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F37" s="12">
         <v>647860985</v>
@@ -8798,10 +8844,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C38" s="7">
         <v>649927764</v>
@@ -8810,7 +8856,7 @@
         <v>3202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F38" s="8">
         <v>649927764</v>
@@ -8826,10 +8872,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C39" s="11">
         <v>661102053</v>
@@ -8838,7 +8884,7 @@
         <v>3301</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F39" s="12">
         <v>661102053</v>
@@ -8854,10 +8900,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C40" s="7">
         <v>662113939</v>
@@ -8866,7 +8912,7 @@
         <v>3553</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F40" s="8">
         <v>662113939</v>
@@ -8882,10 +8928,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C41" s="11">
         <v>662610331</v>
@@ -8894,7 +8940,7 @@
         <v>3504</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F41" s="12">
         <v>662610331</v>
@@ -8910,10 +8956,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C42" s="7">
         <v>663173315</v>
@@ -8922,7 +8968,7 @@
         <v>3429</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F42" s="8">
         <v>663173315</v>
@@ -8938,10 +8984,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C43" s="11">
         <v>663491405</v>
@@ -8950,7 +8996,7 @@
         <v>1405</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F43" s="12">
         <v>663491405</v>
@@ -8966,10 +9012,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C44" s="7">
         <v>663873506</v>
@@ -8978,7 +9024,7 @@
         <v>3228</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F44" s="8">
         <v>663873506</v>
@@ -8994,10 +9040,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C45" s="11">
         <v>669905367</v>
@@ -9006,7 +9052,7 @@
         <v>3401</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F45" s="12">
         <v>669905367</v>
@@ -9022,10 +9068,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C46" s="7">
         <v>671132264</v>
@@ -9034,7 +9080,7 @@
         <v>3207</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F46" s="8">
         <v>671132264</v>
@@ -9050,10 +9096,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C47" s="11">
         <v>671132274</v>
@@ -9062,7 +9108,7 @@
         <v>2274</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F47" s="12">
         <v>671132274</v>
@@ -9078,10 +9124,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C48" s="7">
         <v>671132372</v>
@@ -9090,7 +9136,7 @@
         <v>3204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F48" s="8">
         <v>671132372</v>
@@ -9106,10 +9152,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C49" s="11">
         <v>671904733</v>
@@ -9118,7 +9164,7 @@
         <v>3555</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F49" s="12">
         <v>671904733</v>
@@ -9134,10 +9180,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C50" s="7">
         <v>672299581</v>
@@ -9146,7 +9192,7 @@
         <v>3556</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F50" s="8">
         <v>672299581</v>
@@ -9162,10 +9208,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C51" s="11">
         <v>673050164</v>
@@ -9174,7 +9220,7 @@
         <v>3226</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F51" s="12">
         <v>673050164</v>
@@ -9190,10 +9236,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C52" s="7">
         <v>673072714</v>
@@ -9202,7 +9248,7 @@
         <v>3605</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F52" s="8">
         <v>673072714</v>
@@ -9218,10 +9264,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C53" s="11">
         <v>673843597</v>
@@ -9230,7 +9276,7 @@
         <v>3405</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F53" s="12">
         <v>673843597</v>
@@ -9246,10 +9292,10 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C54" s="7">
         <v>673843600</v>
@@ -9258,7 +9304,7 @@
         <v>3431</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F54" s="8">
         <v>673843600</v>
@@ -9274,10 +9320,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C55" s="11">
         <v>673843609</v>
@@ -9286,7 +9332,7 @@
         <v>3427</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F55" s="12">
         <v>673843609</v>
@@ -9302,10 +9348,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C56" s="7">
         <v>673904703</v>
@@ -9314,7 +9360,7 @@
         <v>3620</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="F56" s="8">
         <v>673904703</v>
@@ -9330,10 +9376,10 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C57" s="11">
         <v>674009571</v>
@@ -9342,7 +9388,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F57" s="12">
         <v>674009571</v>
@@ -9358,10 +9404,10 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C58" s="7">
         <v>674445100</v>
@@ -9370,7 +9416,7 @@
         <v>3426</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F58" s="8">
         <v>674445100</v>
@@ -9386,10 +9432,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C59" s="11">
         <v>679530032</v>
@@ -9398,7 +9444,7 @@
         <v>3603</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F59" s="12">
         <v>679530032</v>
@@ -9414,10 +9460,10 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C60" s="7">
         <v>687239920</v>
@@ -9426,7 +9472,7 @@
         <v>3601</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F60" s="8">
         <v>687239920</v>
@@ -9442,10 +9488,10 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C61" s="11">
         <v>687239921</v>
@@ -9454,7 +9500,7 @@
         <v>9921</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F61" s="12">
         <v>687239921</v>
@@ -9470,10 +9516,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C62" s="7">
         <v>690828188</v>
@@ -9482,7 +9528,7 @@
         <v>8188</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F62" s="8">
         <v>690828188</v>
@@ -9498,10 +9544,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C63" s="11">
         <v>692845902</v>
@@ -9510,7 +9556,7 @@
         <v>5902</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F63" s="12">
         <v>692845902</v>
@@ -9526,10 +9572,10 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C64" s="7">
         <v>692845920</v>
@@ -9538,7 +9584,7 @@
         <v>3352</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F64" s="8">
         <v>692845920</v>
@@ -9554,10 +9600,10 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C65" s="11">
         <v>692845922</v>
@@ -9566,7 +9612,7 @@
         <v>3353</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F65" s="12">
         <v>692845922</v>
@@ -9582,10 +9628,10 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C66" s="7">
         <v>692845941</v>
@@ -9594,7 +9640,7 @@
         <v>3354</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F66" s="8">
         <v>692845941</v>
@@ -9610,10 +9656,10 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C67" s="11">
         <v>692845983</v>
@@ -9622,7 +9668,7 @@
         <v>3610</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F67" s="12">
         <v>692845983</v>
@@ -9638,10 +9684,10 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C68" s="7">
         <v>692845987</v>
@@ -9650,7 +9696,7 @@
         <v>3650</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F68" s="8">
         <v>692845987</v>
@@ -9670,10 +9716,10 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C69" s="11">
         <v>692846014</v>
@@ -9682,7 +9728,7 @@
         <v>3622</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F69" s="12">
         <v>692846014</v>
@@ -9702,10 +9748,10 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C70" s="7">
         <v>692846068</v>
@@ -9714,7 +9760,7 @@
         <v>3651</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F70" s="8">
         <v>692846068</v>
@@ -9734,10 +9780,10 @@
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C71" s="11">
         <v>697413883</v>
@@ -9746,7 +9792,7 @@
         <v>3428</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F71" s="12">
         <v>697413883</v>
@@ -9766,10 +9812,10 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C72" s="7">
         <v>973981333</v>
@@ -9778,7 +9824,7 @@
         <v>1333</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F72" s="8" t="e">
         <v>#N/A</v>
@@ -9798,10 +9844,10 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C73" s="11">
         <v>973981334</v>
@@ -9810,7 +9856,7 @@
         <v>1334</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F73" s="12" t="e">
         <v>#N/A</v>
@@ -9830,10 +9876,10 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C74" s="7">
         <v>973981335</v>
@@ -9842,7 +9888,7 @@
         <v>1335</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F74" s="8" t="e">
         <v>#N/A</v>
@@ -9862,10 +9908,10 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C75" s="11">
         <v>973981336</v>
@@ -9874,7 +9920,7 @@
         <v>1336</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F75" s="12" t="e">
         <v>#N/A</v>
@@ -9894,10 +9940,10 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C76" s="7">
         <v>973981337</v>
@@ -9906,7 +9952,7 @@
         <v>1337</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F76" s="8" t="e">
         <v>#N/A</v>
@@ -9926,10 +9972,10 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C77" s="11">
         <v>973981338</v>
@@ -9938,7 +9984,7 @@
         <v>1338</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F77" s="12" t="e">
         <v>#N/A</v>
@@ -9958,10 +10004,10 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C78" s="7">
         <v>973981339</v>
@@ -9970,7 +10016,7 @@
         <v>1339</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F78" s="8" t="e">
         <v>#N/A</v>
@@ -9990,10 +10036,10 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C79" s="11">
         <v>973981340</v>
@@ -10002,7 +10048,7 @@
         <v>1340</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F79" s="12" t="e">
         <v>#N/A</v>
@@ -10022,10 +10068,10 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C80" s="7">
         <v>973981341</v>
@@ -10034,7 +10080,7 @@
         <v>1341</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F80" s="8" t="e">
         <v>#N/A</v>
@@ -10054,10 +10100,10 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C81" s="11">
         <v>973981342</v>
@@ -10066,7 +10112,7 @@
         <v>1342</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F81" s="12" t="e">
         <v>#N/A</v>
@@ -10086,10 +10132,10 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C82" s="7">
         <v>973981343</v>
@@ -10098,7 +10144,7 @@
         <v>1343</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F82" s="8" t="e">
         <v>#N/A</v>
@@ -10116,15 +10162,15 @@
         <v>1510</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C83" s="11">
         <v>973981344</v>
@@ -10133,7 +10179,7 @@
         <v>1344</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F83" s="12" t="e">
         <v>#N/A</v>
@@ -10153,10 +10199,10 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C84" s="7">
         <v>973981345</v>
@@ -10165,7 +10211,7 @@
         <v>1345</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F84" s="8" t="e">
         <v>#N/A</v>
@@ -10185,10 +10231,10 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C85" s="11">
         <v>973981346</v>
@@ -10197,7 +10243,7 @@
         <v>1346</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F85" s="12" t="e">
         <v>#N/A</v>
@@ -10217,10 +10263,10 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C86" s="7">
         <v>973981347</v>
@@ -10229,7 +10275,7 @@
         <v>1347</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F86" s="8" t="e">
         <v>#N/A</v>
@@ -10249,10 +10295,10 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C87" s="11">
         <v>973981348</v>
@@ -10261,7 +10307,7 @@
         <v>1348</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F87" s="12" t="e">
         <v>#N/A</v>
@@ -10281,10 +10327,10 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C88" s="7">
         <v>973981349</v>
@@ -10293,7 +10339,7 @@
         <v>1349</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F88" s="8" t="e">
         <v>#N/A</v>
@@ -10313,10 +10359,10 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C89" s="11">
         <v>973981350</v>
@@ -10325,7 +10371,7 @@
         <v>1350</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F89" s="12" t="e">
         <v>#N/A</v>
@@ -10345,10 +10391,10 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C90" s="7">
         <v>973981351</v>
@@ -10357,7 +10403,7 @@
         <v>1351</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F90" s="8" t="e">
         <v>#N/A</v>
@@ -10377,10 +10423,10 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C91" s="11">
         <v>973981352</v>
@@ -10389,7 +10435,7 @@
         <v>1352</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F91" s="12" t="e">
         <v>#N/A</v>
@@ -10409,10 +10455,10 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C92" s="7">
         <v>973981353</v>
@@ -10421,7 +10467,7 @@
         <v>1353</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F92" s="8" t="e">
         <v>#N/A</v>
@@ -10439,15 +10485,15 @@
         <v>1000</v>
       </c>
       <c r="K92" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C93" s="11">
         <v>973981354</v>
@@ -10456,7 +10502,7 @@
         <v>1354</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F93" s="12" t="e">
         <v>#N/A</v>
@@ -10476,10 +10522,10 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C94" s="7">
         <v>973981355</v>
@@ -10488,7 +10534,7 @@
         <v>1355</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F94" s="8" t="e">
         <v>#N/A</v>
@@ -10508,10 +10554,10 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C95" s="11">
         <v>973981356</v>
@@ -10520,7 +10566,7 @@
         <v>1356</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F95" s="12" t="e">
         <v>#N/A</v>
@@ -10540,10 +10586,10 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C96" s="7">
         <v>973981357</v>
@@ -10552,7 +10598,7 @@
         <v>1357</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F96" s="8" t="e">
         <v>#N/A</v>
@@ -10572,10 +10618,10 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C97" s="11">
         <v>973981358</v>
@@ -10584,7 +10630,7 @@
         <v>1358</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F97" s="12" t="e">
         <v>#N/A</v>
@@ -10604,10 +10650,10 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C98" s="7">
         <v>973981359</v>
@@ -10616,7 +10662,7 @@
         <v>1359</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F98" s="8" t="e">
         <v>#N/A</v>
@@ -10636,10 +10682,10 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C99" s="11">
         <v>973981360</v>
@@ -10648,7 +10694,7 @@
         <v>1360</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F99" s="12" t="e">
         <v>#N/A</v>
@@ -10668,10 +10714,10 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C100" s="7">
         <v>973981361</v>
@@ -10680,7 +10726,7 @@
         <v>1361</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F100" s="8" t="e">
         <v>#N/A</v>
@@ -10700,10 +10746,10 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C101" s="11">
         <v>973981362</v>
@@ -10712,7 +10758,7 @@
         <v>1362</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F101" s="12" t="e">
         <v>#N/A</v>
@@ -10732,10 +10778,10 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C102" s="7">
         <v>973981363</v>
@@ -10744,7 +10790,7 @@
         <v>1363</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="F102" s="8" t="e">
         <v>#N/A</v>
@@ -10764,10 +10810,10 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C103" s="11">
         <v>973981364</v>
@@ -10776,7 +10822,7 @@
         <v>1364</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F103" s="12" t="e">
         <v>#N/A</v>
@@ -10796,10 +10842,10 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C104" s="7">
         <v>973981365</v>
@@ -10808,7 +10854,7 @@
         <v>1365</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="F104" s="8" t="e">
         <v>#N/A</v>
@@ -10828,10 +10874,10 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C105" s="11">
         <v>973981366</v>
@@ -10840,7 +10886,7 @@
         <v>1366</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F105" s="12" t="e">
         <v>#N/A</v>
@@ -10858,15 +10904,15 @@
         <v>1366</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C106" s="7">
         <v>973981367</v>
@@ -10875,7 +10921,7 @@
         <v>1367</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="F106" s="8" t="e">
         <v>#N/A</v>
@@ -10895,10 +10941,10 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C107" s="11">
         <v>973981368</v>
@@ -10907,7 +10953,7 @@
         <v>1368</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F107" s="12" t="e">
         <v>#N/A</v>

--- a/tmi/bd-telefonia/arxiu_telefonia.xlsx
+++ b/tmi/bd-telefonia/arxiu_telefonia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Archivos de chat de Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/tmi/bd-telefonia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A64955-E058-4C01-8C27-DA31C5940226}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958B1AD9-F32C-4EC2-B1FB-F7351657ED1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
   </bookViews>
@@ -2349,10 +2349,10 @@
     <t>Engineering/Documentation</t>
   </si>
   <si>
-    <t>Latam/Null</t>
-  </si>
-  <si>
     <t>AfterSales/Technical Support</t>
+  </si>
+  <si>
+    <t>Null/Latam</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B924CCF6-ACEC-41F7-BE2D-2D2C72A9ACED}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,7 +3657,7 @@
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -4413,7 +4413,7 @@
         <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -4791,7 +4791,7 @@
         <v>175</v>
       </c>
       <c r="L43" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -5211,7 +5211,7 @@
         <v>209</v>
       </c>
       <c r="L53" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -5589,7 +5589,7 @@
         <v>242</v>
       </c>
       <c r="L62" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>

--- a/tmi/bd-telefonia/arxiu_telefonia.xlsx
+++ b/tmi/bd-telefonia/arxiu_telefonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/tmi/bd-telefonia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958B1AD9-F32C-4EC2-B1FB-F7351657ED1B}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574D1CEE-DBD2-40E2-B41D-7CCEA85819AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="762">
   <si>
     <t>Webex</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Albert</t>
   </si>
   <si>
-    <t>Font</t>
-  </si>
-  <si>
     <t>2438</t>
   </si>
   <si>
@@ -563,12 +560,6 @@
     <t>663173315</t>
   </si>
   <si>
-    <t>Zakkaria</t>
-  </si>
-  <si>
-    <t>Berrichi</t>
-  </si>
-  <si>
     <t>1405</t>
   </si>
   <si>
@@ -825,12 +816,6 @@
   </si>
   <si>
     <t>692845983</t>
-  </si>
-  <si>
-    <t>TallerLogistic</t>
-  </si>
-  <si>
-    <t>Jaisson</t>
   </si>
   <si>
     <t>3650</t>
@@ -2353,6 +2338,24 @@
   </si>
   <si>
     <t>Null/Latam</t>
+  </si>
+  <si>
+    <t>Taller MNT</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Ex Albert Font</t>
+  </si>
+  <si>
+    <t>Null/AfterSales</t>
+  </si>
+  <si>
+    <t>Marc Cots</t>
+  </si>
+  <si>
+    <t>Cots</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B924CCF6-ACEC-41F7-BE2D-2D2C72A9ACED}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -3105,13 +3108,13 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>758</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>760</v>
       </c>
       <c r="L3" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -3123,14 +3126,14 @@
         <v>2438</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -3147,13 +3150,13 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -3165,37 +3168,37 @@
         <v>6295</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
       <c r="L5" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -3207,37 +3210,37 @@
         <v>0025</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -3249,37 +3252,37 @@
         <v>4647</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -3291,37 +3294,37 @@
         <v>4834</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
       <c r="L8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -3333,37 +3336,37 @@
         <v>2251</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>750</v>
+      </c>
+      <c r="K9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>755</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
       <c r="L9" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -3375,37 +3378,37 @@
         <v>0891</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>49</v>
       </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
       <c r="L10" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -3417,37 +3420,37 @@
         <v>0576</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
       <c r="L11" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -3459,37 +3462,37 @@
         <v>0689</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
-        <v>58</v>
-      </c>
       <c r="L12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -3501,37 +3504,37 @@
         <v>8752</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>61</v>
       </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
       <c r="L13" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -3543,37 +3546,37 @@
         <v>8753</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>65</v>
       </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -3585,37 +3588,37 @@
         <v>8754</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>69</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
       <c r="L15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -3627,37 +3630,37 @@
         <v>2795</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>73</v>
       </c>
-      <c r="K16" t="s">
-        <v>74</v>
-      </c>
       <c r="L16" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -3669,37 +3672,37 @@
         <v>6908</v>
       </c>
       <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>77</v>
       </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
       <c r="L17" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -3711,37 +3714,37 @@
         <v>4822</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
-        <v>82</v>
-      </c>
       <c r="L18" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -3753,37 +3756,37 @@
         <v>8539</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>85</v>
       </c>
-      <c r="K19" t="s">
-        <v>86</v>
-      </c>
       <c r="L19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -3795,37 +3798,37 @@
         <v>4325</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>88</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>89</v>
       </c>
-      <c r="K20" t="s">
-        <v>90</v>
-      </c>
       <c r="L20" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -3837,37 +3840,37 @@
         <v>8027</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>93</v>
       </c>
-      <c r="K21" t="s">
-        <v>94</v>
-      </c>
       <c r="L21" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -3879,37 +3882,37 @@
         <v>0187</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s">
-        <v>97</v>
-      </c>
       <c r="L22" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -3921,37 +3924,37 @@
         <v>0198</v>
       </c>
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
         <v>99</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>100</v>
       </c>
-      <c r="K23" t="s">
-        <v>101</v>
-      </c>
       <c r="L23" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -3963,37 +3966,37 @@
         <v>0654</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="K24" t="s">
-        <v>105</v>
-      </c>
       <c r="L24" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -4005,37 +4008,37 @@
         <v>4212</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>107</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>108</v>
       </c>
-      <c r="K25" t="s">
-        <v>109</v>
-      </c>
       <c r="L25" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -4047,37 +4050,37 @@
         <v>8401</v>
       </c>
       <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>112</v>
       </c>
-      <c r="K26" t="s">
-        <v>113</v>
-      </c>
       <c r="L26" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -4089,37 +4092,37 @@
         <v>7007</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>116</v>
       </c>
-      <c r="K27" t="s">
-        <v>117</v>
-      </c>
       <c r="L27" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -4131,37 +4134,37 @@
         <v>2702</v>
       </c>
       <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -4173,37 +4176,37 @@
         <v>0810</v>
       </c>
       <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
         <v>122</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>123</v>
       </c>
-      <c r="K29" t="s">
-        <v>124</v>
-      </c>
       <c r="L29" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -4215,37 +4218,37 @@
         <v>6577</v>
       </c>
       <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>127</v>
       </c>
-      <c r="K30" t="s">
-        <v>128</v>
-      </c>
       <c r="L30" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -4257,37 +4260,37 @@
         <v>2255</v>
       </c>
       <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>131</v>
       </c>
-      <c r="K31" t="s">
-        <v>132</v>
-      </c>
       <c r="L31" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -4299,37 +4302,37 @@
         <v>3944</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
         <v>134</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>135</v>
       </c>
-      <c r="K32" t="s">
-        <v>136</v>
-      </c>
       <c r="L32" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -4341,37 +4344,37 @@
         <v>4927</v>
       </c>
       <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
         <v>138</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>139</v>
       </c>
-      <c r="K33" t="s">
-        <v>140</v>
-      </c>
       <c r="L33" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -4383,37 +4386,37 @@
         <v>3648</v>
       </c>
       <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>750</v>
+      </c>
+      <c r="K34" t="s">
         <v>142</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>755</v>
-      </c>
-      <c r="K34" t="s">
-        <v>143</v>
-      </c>
       <c r="L34" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -4425,37 +4428,37 @@
         <v>0295</v>
       </c>
       <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>750</v>
+      </c>
+      <c r="K35" t="s">
         <v>145</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>755</v>
-      </c>
-      <c r="K35" t="s">
-        <v>146</v>
-      </c>
       <c r="L35" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -4467,37 +4470,37 @@
         <v>9435</v>
       </c>
       <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
         <v>148</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>149</v>
       </c>
-      <c r="K36" t="s">
-        <v>150</v>
-      </c>
       <c r="L36" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -4509,37 +4512,37 @@
         <v>0985</v>
       </c>
       <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>750</v>
+      </c>
+      <c r="K37" t="s">
         <v>152</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>755</v>
-      </c>
-      <c r="K37" t="s">
-        <v>153</v>
-      </c>
       <c r="L37" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -4551,37 +4554,37 @@
         <v>7764</v>
       </c>
       <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>154</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="s">
         <v>155</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" t="s">
-        <v>156</v>
-      </c>
       <c r="L38" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -4593,37 +4596,37 @@
         <v>2053</v>
       </c>
       <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
         <v>158</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>159</v>
       </c>
-      <c r="K39" t="s">
-        <v>160</v>
-      </c>
       <c r="L39" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
@@ -4635,37 +4638,37 @@
         <v>3939</v>
       </c>
       <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
         <v>161</v>
       </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
         <v>162</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>163</v>
       </c>
-      <c r="K40" t="s">
-        <v>164</v>
-      </c>
       <c r="L40" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -4677,37 +4680,37 @@
         <v>0331</v>
       </c>
       <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
         <v>165</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
         <v>166</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>65</v>
-      </c>
-      <c r="K41" t="s">
-        <v>167</v>
-      </c>
       <c r="L41" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -4719,14 +4722,14 @@
         <v>3315</v>
       </c>
       <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>169</v>
-      </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
@@ -4743,13 +4746,13 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>171</v>
+        <v>761</v>
       </c>
       <c r="L42" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -4761,37 +4764,37 @@
         <v>1405</v>
       </c>
       <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" t="s">
         <v>172</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>174</v>
-      </c>
-      <c r="K43" t="s">
-        <v>175</v>
-      </c>
       <c r="L43" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -4803,37 +4806,37 @@
         <v>3506</v>
       </c>
       <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>175</v>
+      </c>
+      <c r="K44" t="s">
         <v>176</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>178</v>
-      </c>
-      <c r="K44" t="s">
-        <v>179</v>
-      </c>
       <c r="L44" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -4845,37 +4848,37 @@
         <v>5367</v>
       </c>
       <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>179</v>
+      </c>
+      <c r="K45" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>182</v>
-      </c>
-      <c r="K45" t="s">
-        <v>183</v>
-      </c>
       <c r="L45" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -4887,37 +4890,37 @@
         <v>2264</v>
       </c>
       <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" t="s">
         <v>184</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>186</v>
-      </c>
-      <c r="K46" t="s">
-        <v>187</v>
-      </c>
       <c r="L46" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -4929,13 +4932,13 @@
         <v>2274</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4953,13 +4956,13 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -4971,13 +4974,13 @@
         <v>2372</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -4995,13 +4998,13 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
@@ -5013,13 +5016,13 @@
         <v>4733</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -5040,10 +5043,10 @@
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
@@ -5055,13 +5058,13 @@
         <v>9581</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -5079,13 +5082,13 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L50" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -5097,13 +5100,13 @@
         <v>0164</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -5121,13 +5124,13 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L51" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -5139,13 +5142,13 @@
         <v>2714</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -5163,13 +5166,13 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -5181,37 +5184,37 @@
         <v>3597</v>
       </c>
       <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
         <v>206</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>208</v>
-      </c>
-      <c r="K53" t="s">
-        <v>209</v>
-      </c>
       <c r="L53" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -5223,37 +5226,37 @@
         <v>3600</v>
       </c>
       <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" t="s">
         <v>210</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>211</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" t="s">
-        <v>213</v>
-      </c>
       <c r="L54" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
@@ -5265,37 +5268,37 @@
         <v>3609</v>
       </c>
       <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" t="s">
         <v>214</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>216</v>
-      </c>
-      <c r="K55" t="s">
-        <v>217</v>
-      </c>
       <c r="L55" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
@@ -5307,37 +5310,37 @@
         <v>4703</v>
       </c>
       <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>217</v>
+      </c>
+      <c r="K56" t="s">
         <v>218</v>
       </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>220</v>
-      </c>
-      <c r="K56" t="s">
-        <v>221</v>
-      </c>
       <c r="L56" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -5349,37 +5352,37 @@
         <v>9571</v>
       </c>
       <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>221</v>
+      </c>
+      <c r="K57" t="s">
         <v>222</v>
       </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>224</v>
-      </c>
-      <c r="K57" t="s">
-        <v>225</v>
-      </c>
       <c r="L57" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
@@ -5391,37 +5394,37 @@
         <v>5100</v>
       </c>
       <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>225</v>
+      </c>
+      <c r="K58" t="s">
         <v>226</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>227</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>228</v>
-      </c>
-      <c r="K58" t="s">
-        <v>229</v>
-      </c>
       <c r="L58" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
@@ -5433,37 +5436,37 @@
         <v>0032</v>
       </c>
       <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K59" t="s">
         <v>230</v>
       </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>232</v>
-      </c>
-      <c r="K59" t="s">
-        <v>233</v>
-      </c>
       <c r="L59" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -5475,13 +5478,13 @@
         <v>9920</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -5502,10 +5505,10 @@
         <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
@@ -5517,13 +5520,13 @@
         <v>9921</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -5541,13 +5544,13 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -5559,13 +5562,13 @@
         <v>8188</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -5583,13 +5586,13 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -5601,13 +5604,13 @@
         <v>5902</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -5625,13 +5628,13 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
@@ -5643,13 +5646,13 @@
         <v>5920</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -5667,13 +5670,13 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -5685,37 +5688,37 @@
         <v>5922</v>
       </c>
       <c r="B65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>247</v>
+      </c>
+      <c r="K65" t="s">
         <v>248</v>
       </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>250</v>
-      </c>
-      <c r="K65" t="s">
-        <v>251</v>
-      </c>
       <c r="L65" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -5727,37 +5730,37 @@
         <v>5941</v>
       </c>
       <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>251</v>
+      </c>
+      <c r="K66" t="s">
         <v>252</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>254</v>
-      </c>
-      <c r="K66" t="s">
-        <v>255</v>
-      </c>
       <c r="L66" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
@@ -5769,13 +5772,13 @@
         <v>5983</v>
       </c>
       <c r="B67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -5793,13 +5796,13 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>258</v>
+        <v>756</v>
       </c>
       <c r="K67" t="s">
-        <v>259</v>
+        <v>757</v>
       </c>
       <c r="L67" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
@@ -5811,13 +5814,13 @@
         <v>5987</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -5835,13 +5838,13 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K68" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L68" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
@@ -5853,13 +5856,13 @@
         <v>6014</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -5877,13 +5880,13 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K69" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L69" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
@@ -5895,13 +5898,13 @@
         <v>6068</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -5919,13 +5922,13 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K70" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L70" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
@@ -5937,13 +5940,13 @@
         <v>3883</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -5961,13 +5964,13 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K71" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L71" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
@@ -6003,13 +6006,13 @@
         <v>14</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L72" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
@@ -6045,13 +6048,13 @@
         <v>14</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
@@ -6087,13 +6090,13 @@
         <v>14</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K74" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L74" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
@@ -6105,10 +6108,10 @@
         <v>1333</v>
       </c>
       <c r="B75" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -6129,13 +6132,13 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K75" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L75" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
@@ -6147,10 +6150,10 @@
         <v>1334</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -6171,13 +6174,13 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K76" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L76" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -6189,10 +6192,10 @@
         <v>1335</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -6213,13 +6216,13 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K77" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L77" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
@@ -6231,10 +6234,10 @@
         <v>1336</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -6255,13 +6258,13 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K78" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L78" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
@@ -6273,10 +6276,10 @@
         <v>1337</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -6297,13 +6300,13 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K79" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L79" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -6315,16 +6318,16 @@
         <v>1338</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -6339,16 +6342,16 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K80" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L80" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M80" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6357,40 +6360,40 @@
         <v>1339</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
+        <v>297</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
         <v>302</v>
       </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>307</v>
-      </c>
       <c r="K81" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L81" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6399,10 +6402,10 @@
         <v>1340</v>
       </c>
       <c r="B82" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -6423,13 +6426,13 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K82" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L82" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
@@ -6441,10 +6444,10 @@
         <v>1341</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -6465,13 +6468,13 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L83" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
@@ -6483,10 +6486,10 @@
         <v>1342</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -6507,13 +6510,13 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L84" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
@@ -6525,10 +6528,10 @@
         <v>1343</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -6549,13 +6552,13 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K85" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L85" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
@@ -6567,10 +6570,10 @@
         <v>1344</v>
       </c>
       <c r="B86" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -6591,13 +6594,13 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K86" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L86" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
@@ -6609,10 +6612,10 @@
         <v>1345</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -6633,13 +6636,13 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K87" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L87" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
@@ -6651,10 +6654,10 @@
         <v>1346</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -6675,13 +6678,13 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K88" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L88" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
@@ -6693,10 +6696,10 @@
         <v>1347</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -6717,13 +6720,13 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L89" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
@@ -6735,10 +6738,10 @@
         <v>1348</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -6759,13 +6762,13 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K90" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L90" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
@@ -6777,10 +6780,10 @@
         <v>1349</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C91" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -6801,13 +6804,13 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K91" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L91" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -6819,16 +6822,16 @@
         <v>1350</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -6843,16 +6846,16 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K92" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L92" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M92" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -6861,10 +6864,10 @@
         <v>1351</v>
       </c>
       <c r="B93" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -6885,13 +6888,13 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K93" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L93" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -6903,10 +6906,10 @@
         <v>1352</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C94" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -6927,13 +6930,13 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K94" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L94" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
@@ -6945,40 +6948,40 @@
         <v>1353</v>
       </c>
       <c r="B95" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>352</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>353</v>
+      </c>
+      <c r="K95" t="s">
+        <v>354</v>
+      </c>
+      <c r="L95" t="s">
+        <v>747</v>
+      </c>
+      <c r="M95" t="s">
         <v>355</v>
-      </c>
-      <c r="C95" t="s">
-        <v>356</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>357</v>
-      </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>358</v>
-      </c>
-      <c r="K95" t="s">
-        <v>359</v>
-      </c>
-      <c r="L95" t="s">
-        <v>752</v>
-      </c>
-      <c r="M95" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -6987,10 +6990,10 @@
         <v>1354</v>
       </c>
       <c r="B96" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -7011,13 +7014,13 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K96" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L96" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
@@ -7029,10 +7032,10 @@
         <v>1355</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -7053,13 +7056,13 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L97" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
@@ -7071,16 +7074,16 @@
         <v>1356</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -7095,16 +7098,16 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K98" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L98" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M98" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7113,10 +7116,10 @@
         <v>1357</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -7137,13 +7140,13 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K99" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L99" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
@@ -7155,10 +7158,10 @@
         <v>1358</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -7179,13 +7182,13 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K100" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L100" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
@@ -7197,10 +7200,10 @@
         <v>1359</v>
       </c>
       <c r="B101" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C101" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -7221,13 +7224,13 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K101" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L101" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
@@ -7239,10 +7242,10 @@
         <v>1360</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -7263,13 +7266,13 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K102" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L102" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -7281,10 +7284,10 @@
         <v>1361</v>
       </c>
       <c r="B103" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -7305,13 +7308,13 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K103" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L103" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
@@ -7323,16 +7326,16 @@
         <v>1362</v>
       </c>
       <c r="B104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C104" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -7347,16 +7350,16 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K104" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L104" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="M104" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7365,10 +7368,10 @@
         <v>1363</v>
       </c>
       <c r="B105" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -7389,13 +7392,13 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K105" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L105" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
@@ -7407,10 +7410,10 @@
         <v>1364</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -7431,13 +7434,13 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K106" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L106" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
@@ -7449,10 +7452,10 @@
         <v>1365</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -7473,13 +7476,13 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="K107" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="L107" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
@@ -7491,10 +7494,10 @@
         <v>1366</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C108" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -7515,13 +7518,13 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
+        <v>115</v>
+      </c>
+      <c r="K108" t="s">
         <v>116</v>
       </c>
-      <c r="K108" t="s">
-        <v>117</v>
-      </c>
       <c r="L108" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
@@ -7533,10 +7536,10 @@
         <v>1367</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C109" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -7557,13 +7560,13 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
+        <v>126</v>
+      </c>
+      <c r="K109" t="s">
         <v>127</v>
       </c>
-      <c r="K109" t="s">
-        <v>128</v>
-      </c>
       <c r="L109" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
@@ -7575,10 +7578,10 @@
         <v>1368</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C110" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -7599,13 +7602,13 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K110" t="s">
         <v>77</v>
       </c>
-      <c r="K110" t="s">
-        <v>78</v>
-      </c>
       <c r="L110" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
@@ -7641,13 +7644,13 @@
         <v>14</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K111" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L111" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
@@ -7683,13 +7686,13 @@
         <v>14</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K112" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L112" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
@@ -7725,13 +7728,13 @@
         <v>14</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K113" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L113" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
@@ -7767,13 +7770,13 @@
         <v>14</v>
       </c>
       <c r="J114" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K114" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L114" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
@@ -7812,34 +7815,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="G1" s="14"/>
       <c r="K1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C2" s="7">
         <v>606602322</v>
@@ -7848,7 +7851,7 @@
         <v>3552</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F2" s="8">
         <v>606602322</v>
@@ -7864,10 +7867,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C3" s="11">
         <v>606639015</v>
@@ -7876,7 +7879,7 @@
         <v>3554</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F3" s="12">
         <v>606639015</v>
@@ -7892,10 +7895,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C4" s="7">
         <v>607092438</v>
@@ -7904,7 +7907,7 @@
         <v>2438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F4" s="8">
         <v>607092438</v>
@@ -7920,10 +7923,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C5" s="11">
         <v>608696295</v>
@@ -7932,7 +7935,7 @@
         <v>3425</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F5" s="12">
         <v>608696295</v>
@@ -7948,10 +7951,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C6" s="7">
         <v>609620025</v>
@@ -7960,7 +7963,7 @@
         <v>3201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F6" s="8">
         <v>609620025</v>
@@ -7976,10 +7979,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C7" s="11">
         <v>610514647</v>
@@ -7988,7 +7991,7 @@
         <v>3105</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F7" s="12">
         <v>610514647</v>
@@ -8004,10 +8007,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C8" s="7">
         <v>610514834</v>
@@ -8016,7 +8019,7 @@
         <v>3350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F8" s="8">
         <v>610514834</v>
@@ -8032,10 +8035,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C9" s="11">
         <v>616322251</v>
@@ -8044,7 +8047,7 @@
         <v>2251</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F9" s="12">
         <v>616322251</v>
@@ -8060,10 +8063,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C10" s="7">
         <v>616670891</v>
@@ -8072,7 +8075,7 @@
         <v>3227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F10" s="8">
         <v>616670891</v>
@@ -8088,10 +8091,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C11" s="11">
         <v>618490576</v>
@@ -8100,7 +8103,7 @@
         <v>3433</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F11" s="12">
         <v>618490576</v>
@@ -8116,10 +8119,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C12" s="7">
         <v>618490689</v>
@@ -8128,7 +8131,7 @@
         <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F12" s="8">
         <v>618490689</v>
@@ -8144,10 +8147,10 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C13" s="11">
         <v>618628752</v>
@@ -8156,7 +8159,7 @@
         <v>3300</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F13" s="12">
         <v>618628752</v>
@@ -8172,10 +8175,10 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C14" s="7">
         <v>618628753</v>
@@ -8184,7 +8187,7 @@
         <v>3602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F14" s="8">
         <v>618628753</v>
@@ -8200,10 +8203,10 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C15" s="11">
         <v>618628754</v>
@@ -8212,7 +8215,7 @@
         <v>3203</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F15" s="12">
         <v>618628754</v>
@@ -8228,10 +8231,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C16" s="7">
         <v>618832795</v>
@@ -8240,7 +8243,7 @@
         <v>3404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F16" s="8">
         <v>618832795</v>
@@ -8256,10 +8259,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C17" s="11">
         <v>619126908</v>
@@ -8268,7 +8271,7 @@
         <v>3403</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F17" s="12">
         <v>619126908</v>
@@ -8284,10 +8287,10 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C18" s="7">
         <v>619464822</v>
@@ -8296,7 +8299,7 @@
         <v>3500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F18" s="8">
         <v>619464822</v>
@@ -8312,10 +8315,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C19" s="11">
         <v>620678539</v>
@@ -8324,7 +8327,7 @@
         <v>3430</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F19" s="12">
         <v>620678539</v>
@@ -8340,10 +8343,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C20" s="7">
         <v>626154325</v>
@@ -8352,7 +8355,7 @@
         <v>3621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F20" s="8">
         <v>626154325</v>
@@ -8368,10 +8371,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C21" s="11">
         <v>626998027</v>
@@ -8380,7 +8383,7 @@
         <v>3502</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F21" s="12">
         <v>626998027</v>
@@ -8396,10 +8399,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C22" s="7">
         <v>627360187</v>
@@ -8408,7 +8411,7 @@
         <v>3503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F22" s="8">
         <v>627360187</v>
@@ -8424,10 +8427,10 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C23" s="11">
         <v>627360198</v>
@@ -8436,7 +8439,7 @@
         <v>3252</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F23" s="12">
         <v>627360198</v>
@@ -8452,10 +8455,10 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C24" s="7">
         <v>627360654</v>
@@ -8464,7 +8467,7 @@
         <v>3250</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F24" s="8">
         <v>627360654</v>
@@ -8480,10 +8483,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C25" s="11">
         <v>629384212</v>
@@ -8492,7 +8495,7 @@
         <v>3501</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F25" s="12">
         <v>629384212</v>
@@ -8508,10 +8511,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C26" s="7">
         <v>629388401</v>
@@ -8520,7 +8523,7 @@
         <v>3200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F26" s="8">
         <v>629388401</v>
@@ -8536,10 +8539,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C27" s="11">
         <v>630007007</v>
@@ -8548,7 +8551,7 @@
         <v>3007</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F27" s="12">
         <v>630007007</v>
@@ -8564,10 +8567,10 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C28" s="7">
         <v>630832702</v>
@@ -8576,7 +8579,7 @@
         <v>3505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F28" s="8">
         <v>630832702</v>
@@ -8592,10 +8595,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C29" s="11">
         <v>634870810</v>
@@ -8604,7 +8607,7 @@
         <v>3206</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F29" s="12">
         <v>634870810</v>
@@ -8620,10 +8623,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C30" s="7">
         <v>636256577</v>
@@ -8632,7 +8635,7 @@
         <v>3402</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F30" s="8">
         <v>636256577</v>
@@ -8648,10 +8651,10 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C31" s="11">
         <v>636312255</v>
@@ -8660,7 +8663,7 @@
         <v>3432</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F31" s="12">
         <v>636312255</v>
@@ -8676,10 +8679,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C32" s="7">
         <v>637273944</v>
@@ -8688,7 +8691,7 @@
         <v>3551</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F32" s="8">
         <v>637273944</v>
@@ -8704,10 +8707,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C33" s="11">
         <v>637274927</v>
@@ -8716,7 +8719,7 @@
         <v>3205</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F33" s="12">
         <v>637274927</v>
@@ -8732,10 +8735,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C34" s="7">
         <v>639103648</v>
@@ -8744,7 +8747,7 @@
         <v>3648</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F34" s="8">
         <v>639103648</v>
@@ -8760,10 +8763,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C35" s="11">
         <v>646510295</v>
@@ -8772,7 +8775,7 @@
         <v>3100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F35" s="12">
         <v>646510295</v>
@@ -8788,10 +8791,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C36" s="7">
         <v>647719435</v>
@@ -8800,7 +8803,7 @@
         <v>3251</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F36" s="8">
         <v>647719435</v>
@@ -8816,10 +8819,10 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C37" s="11">
         <v>647860985</v>
@@ -8828,7 +8831,7 @@
         <v>985</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F37" s="12">
         <v>647860985</v>
@@ -8844,10 +8847,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C38" s="7">
         <v>649927764</v>
@@ -8856,7 +8859,7 @@
         <v>3202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F38" s="8">
         <v>649927764</v>
@@ -8872,10 +8875,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C39" s="11">
         <v>661102053</v>
@@ -8884,7 +8887,7 @@
         <v>3301</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F39" s="12">
         <v>661102053</v>
@@ -8900,10 +8903,10 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C40" s="7">
         <v>662113939</v>
@@ -8912,7 +8915,7 @@
         <v>3553</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F40" s="8">
         <v>662113939</v>
@@ -8928,10 +8931,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C41" s="11">
         <v>662610331</v>
@@ -8940,7 +8943,7 @@
         <v>3504</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F41" s="12">
         <v>662610331</v>
@@ -8956,10 +8959,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C42" s="7">
         <v>663173315</v>
@@ -8968,7 +8971,7 @@
         <v>3429</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F42" s="8">
         <v>663173315</v>
@@ -8984,10 +8987,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C43" s="11">
         <v>663491405</v>
@@ -8996,7 +8999,7 @@
         <v>1405</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F43" s="12">
         <v>663491405</v>
@@ -9012,10 +9015,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C44" s="7">
         <v>663873506</v>
@@ -9024,7 +9027,7 @@
         <v>3228</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F44" s="8">
         <v>663873506</v>
@@ -9040,10 +9043,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C45" s="11">
         <v>669905367</v>
@@ -9052,7 +9055,7 @@
         <v>3401</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F45" s="12">
         <v>669905367</v>
@@ -9068,10 +9071,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C46" s="7">
         <v>671132264</v>
@@ -9080,7 +9083,7 @@
         <v>3207</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F46" s="8">
         <v>671132264</v>
@@ -9096,10 +9099,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C47" s="11">
         <v>671132274</v>
@@ -9108,7 +9111,7 @@
         <v>2274</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F47" s="12">
         <v>671132274</v>
@@ -9124,10 +9127,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C48" s="7">
         <v>671132372</v>
@@ -9136,7 +9139,7 @@
         <v>3204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F48" s="8">
         <v>671132372</v>
@@ -9152,10 +9155,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C49" s="11">
         <v>671904733</v>
@@ -9164,7 +9167,7 @@
         <v>3555</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F49" s="12">
         <v>671904733</v>
@@ -9180,10 +9183,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C50" s="7">
         <v>672299581</v>
@@ -9192,7 +9195,7 @@
         <v>3556</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F50" s="8">
         <v>672299581</v>
@@ -9208,10 +9211,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C51" s="11">
         <v>673050164</v>
@@ -9220,7 +9223,7 @@
         <v>3226</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F51" s="12">
         <v>673050164</v>
@@ -9236,10 +9239,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C52" s="7">
         <v>673072714</v>
@@ -9248,7 +9251,7 @@
         <v>3605</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F52" s="8">
         <v>673072714</v>
@@ -9264,10 +9267,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C53" s="11">
         <v>673843597</v>
@@ -9276,7 +9279,7 @@
         <v>3405</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F53" s="12">
         <v>673843597</v>
@@ -9292,10 +9295,10 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C54" s="7">
         <v>673843600</v>
@@ -9304,7 +9307,7 @@
         <v>3431</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F54" s="8">
         <v>673843600</v>
@@ -9320,10 +9323,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C55" s="11">
         <v>673843609</v>
@@ -9332,7 +9335,7 @@
         <v>3427</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F55" s="12">
         <v>673843609</v>
@@ -9348,10 +9351,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C56" s="7">
         <v>673904703</v>
@@ -9360,7 +9363,7 @@
         <v>3620</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F56" s="8">
         <v>673904703</v>
@@ -9376,10 +9379,10 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C57" s="11">
         <v>674009571</v>
@@ -9388,7 +9391,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F57" s="12">
         <v>674009571</v>
@@ -9404,10 +9407,10 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C58" s="7">
         <v>674445100</v>
@@ -9416,7 +9419,7 @@
         <v>3426</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F58" s="8">
         <v>674445100</v>
@@ -9432,10 +9435,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C59" s="11">
         <v>679530032</v>
@@ -9444,7 +9447,7 @@
         <v>3603</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F59" s="12">
         <v>679530032</v>
@@ -9460,10 +9463,10 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C60" s="7">
         <v>687239920</v>
@@ -9472,7 +9475,7 @@
         <v>3601</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F60" s="8">
         <v>687239920</v>
@@ -9488,10 +9491,10 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C61" s="11">
         <v>687239921</v>
@@ -9500,7 +9503,7 @@
         <v>9921</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F61" s="12">
         <v>687239921</v>
@@ -9516,10 +9519,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C62" s="7">
         <v>690828188</v>
@@ -9528,7 +9531,7 @@
         <v>8188</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F62" s="8">
         <v>690828188</v>
@@ -9544,10 +9547,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C63" s="11">
         <v>692845902</v>
@@ -9556,7 +9559,7 @@
         <v>5902</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F63" s="12">
         <v>692845902</v>
@@ -9572,10 +9575,10 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C64" s="7">
         <v>692845920</v>
@@ -9584,7 +9587,7 @@
         <v>3352</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F64" s="8">
         <v>692845920</v>
@@ -9600,10 +9603,10 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C65" s="11">
         <v>692845922</v>
@@ -9612,7 +9615,7 @@
         <v>3353</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F65" s="12">
         <v>692845922</v>
@@ -9628,10 +9631,10 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C66" s="7">
         <v>692845941</v>
@@ -9640,7 +9643,7 @@
         <v>3354</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F66" s="8">
         <v>692845941</v>
@@ -9656,10 +9659,10 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C67" s="11">
         <v>692845983</v>
@@ -9668,7 +9671,7 @@
         <v>3610</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F67" s="12">
         <v>692845983</v>
@@ -9684,10 +9687,10 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C68" s="7">
         <v>692845987</v>
@@ -9696,7 +9699,7 @@
         <v>3650</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F68" s="8">
         <v>692845987</v>
@@ -9716,10 +9719,10 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C69" s="11">
         <v>692846014</v>
@@ -9728,7 +9731,7 @@
         <v>3622</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F69" s="12">
         <v>692846014</v>
@@ -9748,10 +9751,10 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C70" s="7">
         <v>692846068</v>
@@ -9760,7 +9763,7 @@
         <v>3651</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F70" s="8">
         <v>692846068</v>
@@ -9780,10 +9783,10 @@
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C71" s="11">
         <v>697413883</v>
@@ -9792,7 +9795,7 @@
         <v>3428</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F71" s="12">
         <v>697413883</v>
@@ -9812,10 +9815,10 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C72" s="7">
         <v>973981333</v>
@@ -9824,7 +9827,7 @@
         <v>1333</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F72" s="8" t="e">
         <v>#N/A</v>
@@ -9844,10 +9847,10 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C73" s="11">
         <v>973981334</v>
@@ -9856,7 +9859,7 @@
         <v>1334</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F73" s="12" t="e">
         <v>#N/A</v>
@@ -9876,10 +9879,10 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C74" s="7">
         <v>973981335</v>
@@ -9888,7 +9891,7 @@
         <v>1335</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F74" s="8" t="e">
         <v>#N/A</v>
@@ -9908,10 +9911,10 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C75" s="11">
         <v>973981336</v>
@@ -9920,7 +9923,7 @@
         <v>1336</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F75" s="12" t="e">
         <v>#N/A</v>
@@ -9940,10 +9943,10 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C76" s="7">
         <v>973981337</v>
@@ -9952,7 +9955,7 @@
         <v>1337</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F76" s="8" t="e">
         <v>#N/A</v>
@@ -9972,10 +9975,10 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C77" s="11">
         <v>973981338</v>
@@ -9984,7 +9987,7 @@
         <v>1338</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F77" s="12" t="e">
         <v>#N/A</v>
@@ -10004,10 +10007,10 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C78" s="7">
         <v>973981339</v>
@@ -10016,7 +10019,7 @@
         <v>1339</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F78" s="8" t="e">
         <v>#N/A</v>
@@ -10036,10 +10039,10 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C79" s="11">
         <v>973981340</v>
@@ -10048,7 +10051,7 @@
         <v>1340</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F79" s="12" t="e">
         <v>#N/A</v>
@@ -10068,10 +10071,10 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C80" s="7">
         <v>973981341</v>
@@ -10080,7 +10083,7 @@
         <v>1341</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F80" s="8" t="e">
         <v>#N/A</v>
@@ -10100,10 +10103,10 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C81" s="11">
         <v>973981342</v>
@@ -10112,7 +10115,7 @@
         <v>1342</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F81" s="12" t="e">
         <v>#N/A</v>
@@ -10132,10 +10135,10 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C82" s="7">
         <v>973981343</v>
@@ -10144,7 +10147,7 @@
         <v>1343</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F82" s="8" t="e">
         <v>#N/A</v>
@@ -10162,15 +10165,15 @@
         <v>1510</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C83" s="11">
         <v>973981344</v>
@@ -10179,7 +10182,7 @@
         <v>1344</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F83" s="12" t="e">
         <v>#N/A</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C84" s="7">
         <v>973981345</v>
@@ -10211,7 +10214,7 @@
         <v>1345</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F84" s="8" t="e">
         <v>#N/A</v>
@@ -10231,10 +10234,10 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C85" s="11">
         <v>973981346</v>
@@ -10243,7 +10246,7 @@
         <v>1346</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F85" s="12" t="e">
         <v>#N/A</v>
@@ -10263,10 +10266,10 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C86" s="7">
         <v>973981347</v>
@@ -10275,7 +10278,7 @@
         <v>1347</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F86" s="8" t="e">
         <v>#N/A</v>
@@ -10295,10 +10298,10 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C87" s="11">
         <v>973981348</v>
@@ -10307,7 +10310,7 @@
         <v>1348</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F87" s="12" t="e">
         <v>#N/A</v>
@@ -10327,10 +10330,10 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C88" s="7">
         <v>973981349</v>
@@ -10339,7 +10342,7 @@
         <v>1349</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F88" s="8" t="e">
         <v>#N/A</v>
@@ -10359,10 +10362,10 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C89" s="11">
         <v>973981350</v>
@@ -10371,7 +10374,7 @@
         <v>1350</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F89" s="12" t="e">
         <v>#N/A</v>
@@ -10391,10 +10394,10 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C90" s="7">
         <v>973981351</v>
@@ -10403,7 +10406,7 @@
         <v>1351</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F90" s="8" t="e">
         <v>#N/A</v>
@@ -10423,10 +10426,10 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C91" s="11">
         <v>973981352</v>
@@ -10435,7 +10438,7 @@
         <v>1352</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F91" s="12" t="e">
         <v>#N/A</v>
@@ -10455,10 +10458,10 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C92" s="7">
         <v>973981353</v>
@@ -10467,7 +10470,7 @@
         <v>1353</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F92" s="8" t="e">
         <v>#N/A</v>
@@ -10485,15 +10488,15 @@
         <v>1000</v>
       </c>
       <c r="K92" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C93" s="11">
         <v>973981354</v>
@@ -10502,7 +10505,7 @@
         <v>1354</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F93" s="12" t="e">
         <v>#N/A</v>
@@ -10522,10 +10525,10 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C94" s="7">
         <v>973981355</v>
@@ -10534,7 +10537,7 @@
         <v>1355</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F94" s="8" t="e">
         <v>#N/A</v>
@@ -10554,10 +10557,10 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C95" s="11">
         <v>973981356</v>
@@ -10566,7 +10569,7 @@
         <v>1356</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F95" s="12" t="e">
         <v>#N/A</v>
@@ -10586,10 +10589,10 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C96" s="7">
         <v>973981357</v>
@@ -10598,7 +10601,7 @@
         <v>1357</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F96" s="8" t="e">
         <v>#N/A</v>
@@ -10618,10 +10621,10 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C97" s="11">
         <v>973981358</v>
@@ -10630,7 +10633,7 @@
         <v>1358</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F97" s="12" t="e">
         <v>#N/A</v>
@@ -10650,10 +10653,10 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C98" s="7">
         <v>973981359</v>
@@ -10662,7 +10665,7 @@
         <v>1359</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F98" s="8" t="e">
         <v>#N/A</v>
@@ -10682,10 +10685,10 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C99" s="11">
         <v>973981360</v>
@@ -10694,7 +10697,7 @@
         <v>1360</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F99" s="12" t="e">
         <v>#N/A</v>
@@ -10714,10 +10717,10 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C100" s="7">
         <v>973981361</v>
@@ -10726,7 +10729,7 @@
         <v>1361</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F100" s="8" t="e">
         <v>#N/A</v>
@@ -10746,10 +10749,10 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C101" s="11">
         <v>973981362</v>
@@ -10758,7 +10761,7 @@
         <v>1362</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F101" s="12" t="e">
         <v>#N/A</v>
@@ -10778,10 +10781,10 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C102" s="7">
         <v>973981363</v>
@@ -10790,7 +10793,7 @@
         <v>1363</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F102" s="8" t="e">
         <v>#N/A</v>
@@ -10810,10 +10813,10 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C103" s="11">
         <v>973981364</v>
@@ -10822,7 +10825,7 @@
         <v>1364</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F103" s="12" t="e">
         <v>#N/A</v>
@@ -10842,10 +10845,10 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C104" s="7">
         <v>973981365</v>
@@ -10854,7 +10857,7 @@
         <v>1365</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F104" s="8" t="e">
         <v>#N/A</v>
@@ -10874,10 +10877,10 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C105" s="11">
         <v>973981366</v>
@@ -10886,7 +10889,7 @@
         <v>1366</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F105" s="12" t="e">
         <v>#N/A</v>
@@ -10904,15 +10907,15 @@
         <v>1366</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C106" s="7">
         <v>973981367</v>
@@ -10921,7 +10924,7 @@
         <v>1367</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F106" s="8" t="e">
         <v>#N/A</v>
@@ -10941,10 +10944,10 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C107" s="11">
         <v>973981368</v>
@@ -10953,7 +10956,7 @@
         <v>1368</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F107" s="12" t="e">
         <v>#N/A</v>
